--- a/example_data/Summary/during/Averages by Sample/Avg Percentage Change_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg Percentage Change_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,40 +498,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -540,217 +550,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.55959029231783</v>
+        <v>-23.48911087590959</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-8.168478259392446</v>
+        <v>-23.86489067767823</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23.14118881765092</v>
+        <v>2.130670584588777</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.96066486473658</v>
+        <v>58.24076881870626</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>396.8694820839193</v>
+        <v>214.7541776787185</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-24.96160442398051</v>
+        <v>17.62127682106084</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-20.42185348961928</v>
+        <v>-2.718488872133525</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-24.96160442398051</v>
+        <v>17.64153529766923</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-24.96160442398051</v>
+        <v>33.75654178125983</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>36.55959029231783</v>
+        <v>12.15289829939408</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-23.51144887158235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.02948371754544</v>
+        <v>0.02308506090305564</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.947838045903644</v>
+        <v>-2.740164091609455</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>64.80564911297657</v>
+        <v>91.70089051102775</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.590804372888406</v>
+        <v>22.34044417985094</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-38.86979644328169</v>
+        <v>660.15152982233</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-4.115486590473793</v>
+        <v>46.55845540667027</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-4.115486590473793</v>
+        <v>-8.639187814657559</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-4.115486590473793</v>
+        <v>15.289184742276</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-1.544282487250683</v>
+        <v>45.89775181958634</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02308506090305564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.18507553875652</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-46.22552501297576</v>
+        <v>1.862255264953416</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-25.72983973702103</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-58.06336435348448</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.543007034121004</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-25.92526502411414</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>8.389516615028725</v>
+        <v>-4.596746620435022</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.95653246403503</v>
+        <v>-13.4061921725171</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>10.69598492015703</v>
+        <v>-34.57677069049507</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>1.862255264953416</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.987363223729272</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>186.4028377867348</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.659404748213671</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.186254491371626</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>54.88171084426681</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.710154330356993</v>
+        <v>-9.933531172716169</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>64.80564911297657</v>
+        <v>4.599626565227457</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-5.453190429278392</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>4.926858257521414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-6.311752433632798</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-15.75548510389317</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-20.23875312335703</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.720752669289331</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>119.8321960693348</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-16.35716201215737</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-13.87131964456423</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-22.98924811717199</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-3.890961541655249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-11.47685291005934</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-18.19807354936601</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.240177851972748</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22.79392011229331</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>226.5883843287513</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-26.92328002581076</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>8.220234379925399</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1.240177851972748</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>5.271329558593359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2260752375412396</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-8.797078131418827</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6.882584584422892</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>305.5289954436994</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>16.32716869152621</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-9.405732004032144</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-8.797078131418827</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-12.21568431060712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.55946354845237</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.748583796755179</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.607525842187178</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>127.1239324775228</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-4.188136863958912</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-14.74541585049913</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>52.55946354845237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15.93610591390116</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-21.44087203261646</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>45.77646295512345</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>49.16275340494622</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>15.61203227600182</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-12.18331294337701</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>15.93610591390116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.120638439575698</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>29.76509908876517</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>52.94467942010122</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>79.85151193745764</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>43.47931418057579</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>29.76509908876517</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-12.06275806905709</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,40 +1337,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -877,217 +1389,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.55959029231784</v>
+        <v>-23.4891108759096</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-8.168478259392444</v>
+        <v>-23.86489067767824</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23.14118881765091</v>
+        <v>2.13067058458878</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.96066486473659</v>
+        <v>58.24076881870624</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>396.8694820839194</v>
+        <v>214.7541776787185</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-24.96160442398051</v>
+        <v>17.62127682106085</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-20.42185348961928</v>
+        <v>-2.718488872133511</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-24.96160442398051</v>
+        <v>17.64153529766923</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-24.96160442398051</v>
+        <v>33.75654178125986</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>36.55959029231784</v>
+        <v>12.15289829939409</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-23.51144887158236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.02948371754543</v>
+        <v>0.02308506090305536</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.947838045903639</v>
+        <v>-2.740164091609456</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>64.80564911297655</v>
+        <v>91.70089051102775</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.590804372888424</v>
+        <v>22.34044417985094</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-38.86979644328169</v>
+        <v>660.15152982233</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-4.115486590473779</v>
+        <v>46.55845540667028</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-4.115486590473779</v>
+        <v>-8.639187814657554</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-4.115486590473779</v>
+        <v>15.289184742276</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-1.54428248725069</v>
+        <v>45.89775181958633</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02308506090305536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.18507553875652</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-46.22552501297576</v>
+        <v>1.862255264953431</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-25.72983973702104</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-58.06336435348447</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.543007034120995</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-25.92526502411414</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>8.389516615028736</v>
+        <v>-4.596746620435006</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.956532464035021</v>
+        <v>-13.40619217251711</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>10.69598492015701</v>
+        <v>-34.57677069049507</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>1.862255264953431</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.987363223729265</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>186.4028377867347</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.659404748213668</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.186254491371619</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>54.8817108442668</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.710154330357002</v>
+        <v>-9.933531172716165</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>64.80564911297655</v>
+        <v>4.599626565227474</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-5.453190429278401</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>4.926858257521426</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-6.311752433632798</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-15.75548510389317</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-20.23875312335703</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.720752669289325</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>119.8321960693348</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-16.35716201215736</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-13.87131964456423</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-22.98924811717198</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-3.890961541655254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-11.47685291005936</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-18.19807354936601</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.24017785197273</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22.79392011229331</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>226.5883843287513</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-26.92328002581076</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>8.220234379925403</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1.24017785197273</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>5.271329558593377</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2260752375412457</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-8.797078131418818</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6.882584584422882</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>305.5289954436994</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>16.32716869152622</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-9.40573200403216</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-8.797078131418818</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-12.21568431060711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.55946354845239</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.748583796755174</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.607525842187195</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>127.1239324775228</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-4.188136863958916</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-14.74541585049913</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>52.55946354845239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15.93610591390117</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-21.44087203261646</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>45.77646295512346</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>49.16275340494624</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>15.61203227600182</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-12.18331294337701</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>15.93610591390117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.120638439575707</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>29.76509908876519</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>52.9446794201012</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>79.85151193745764</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>43.47931418057579</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>29.76509908876519</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-12.06275806905707</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,40 +2176,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1214,246 +2228,758 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.215695446918</v>
+        <v>-153.8272143519589</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31.57863380925494</v>
+        <v>-147.2228480902501</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45.89184336753831</v>
+        <v>8.028629971501406</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>134.0818331264126</v>
+        <v>-669.607085098449</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-611.6453386201085</v>
+        <v>-33342.61087857807</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-49.90508439973079</v>
+        <v>81.86136129052811</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-35.71656297254939</v>
+        <v>-7.572074751553449</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-49.90508439973079</v>
+        <v>135.9307876733757</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-49.90508439973079</v>
+        <v>590.700412903558</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>1112.215695446918</v>
+        <v>74.29500183129585</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-153.4119678319099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-41.54064601299023</v>
+        <v>-0.434927780236826</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-118.2332445937629</v>
+        <v>24.89542982173356</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-803.7670475867941</v>
+        <v>538.6976968828102</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-189.0137037113417</v>
+        <v>98.55633583407794</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-212.6800629674015</v>
+        <v>-925.1855863169636</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-111751.2244905815</v>
+        <v>-70.51007451928282</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-111751.2244905815</v>
+        <v>-21.13812547930336</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-111751.2244905815</v>
+        <v>58.38837698153926</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.744902128114489</v>
+        <v>242.8036619302453</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.434927780236826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.0534025908055</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-69.23362076599042</v>
-      </c>
+        <v>17.26383588925923</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-192.5189277386351</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-193.0346916553442</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-48.90081462295849</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-609.5274454162452</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>34.22511993986268</v>
+        <v>-56.06906461456532</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>14.25012488724507</v>
+        <v>-121.4989859872841</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-215.2604749763275</v>
+        <v>-171.6137342260051</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>17.26383588925923</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-45.16331297197446</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-192.1399022109757</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-9.484591061323426</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>51.3621467288304</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>101.2116111321862</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-123.6536812362274</v>
+        <v>-58.88404517825842</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>-803.7670475867941</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>19.6851130568709</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-18.06922334117828</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>-27.83908258643305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-102.3729191919819</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>567.7515672805482</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-96.57036230269847</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>18.50945169046015</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>477.3138014682384</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-54.08662732586664</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-59.13140273398933</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-95.83219633075323</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-91.66087726291494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-128.718802327818</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-105.5538634414075</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10.97013801753167</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>193.435618205773</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1525.067857979495</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>198.6106899589892</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>84.73005227488807</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>10.97013801753167</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>-10641.98026016514</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.409799028726841</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-20.34355029667483</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>19.1209507679016</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>-26334.2378684039</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>-48.88589902502861</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-22.16206320701024</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-20.34355029667483</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>210.6957156341202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-615.5750200676075</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>58.84666001760435</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>23.80156188553501</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>483.5126112709694</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-29.220688626228</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>271.1662749059449</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>-615.5750200676075</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>170.6214745897911</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-156.3278179930574</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>324.5507114727292</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>139.3855060183683</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>109.4857540929793</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-48.35416252192464</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>170.6214745897911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2741.654726901201</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>207.2276819595213</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1004.393082659101</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1159.179962394647</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>479.4478226364312</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>207.2276819595213</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-174.2030676091484</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
